--- a/penduduk_provinsi_edit.xlsx
+++ b/penduduk_provinsi_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\sk5010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaini\sk5010\rbl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AFDD0C-7AA4-423A-A19E-B6DAB787AA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F3DB8E-7B50-40F9-81DC-E333AFA78AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE7CC6D7-B3AE-460B-9C54-6E9069BF9A55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE7CC6D7-B3AE-460B-9C54-6E9069BF9A55}"/>
   </bookViews>
   <sheets>
     <sheet name="penduduk_provinsi" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
   <si>
     <t>Aceh</t>
   </si>
@@ -175,31 +172,16 @@
     <t>Papua Pegunungan</t>
   </si>
   <si>
-    <t>Penduduk_2021</t>
-  </si>
-  <si>
-    <t>Penduduk_2022</t>
-  </si>
-  <si>
-    <t>Penduduk_2023</t>
-  </si>
-  <si>
     <t>Penduduk_2024</t>
   </si>
   <si>
     <t>Luas_Wilayah_km2</t>
   </si>
   <si>
-    <t>Kepadatan_Penduduk_2021</t>
-  </si>
-  <si>
-    <t>Kepadatan_Penduduk_2022</t>
-  </si>
-  <si>
-    <t>Kepadatan_Penduduk_2023</t>
-  </si>
-  <si>
     <t>Kepadatan_Penduduk_2024</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -1040,1274 +1022,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6061C5-4FA5-4C75-A3EC-D9D884F273FF}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" customWidth="1"/>
-    <col min="8" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>5274.9</v>
-      </c>
       <c r="C2">
-        <v>5334.9</v>
+        <v>5554.8</v>
       </c>
       <c r="D2">
-        <v>5409.2</v>
+        <v>56834.75</v>
       </c>
       <c r="E2">
-        <v>5554.8</v>
-      </c>
-      <c r="F2">
-        <v>56834.75</v>
-      </c>
-      <c r="G2">
-        <f>1000*B2/$F2</f>
-        <v>92.811176261002288</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:J17" si="0">1000*C2/$F2</f>
-        <v>93.866868421168391</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>95.174167212840729</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
+        <f>1000*C2/$D2</f>
         <v>97.735980188177123</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15588.5</v>
+      </c>
+      <c r="D3">
+        <v>72460.740000000005</v>
+      </c>
+      <c r="E3">
+        <f>1000*C3/$D3</f>
+        <v>215.13028986455285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5836.2</v>
+      </c>
+      <c r="D4">
+        <v>42119.54</v>
+      </c>
+      <c r="E4">
+        <f>1000*C4/$D4</f>
+        <v>138.56276682983716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>6728.1</v>
+      </c>
+      <c r="D5">
+        <v>89935.9</v>
+      </c>
+      <c r="E5">
+        <f>1000*C5/$D5</f>
+        <v>74.809947974057081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>3724.3</v>
+      </c>
+      <c r="D6">
+        <v>49026.58</v>
+      </c>
+      <c r="E6">
+        <f>1000*C6/$D6</f>
+        <v>75.964915358158777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>8837.2999999999993</v>
+      </c>
+      <c r="D7">
+        <v>86771.68</v>
+      </c>
+      <c r="E7">
+        <f>1000*C7/$D7</f>
+        <v>101.84544081663512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2112.1999999999998</v>
+      </c>
+      <c r="D8">
+        <v>20128.34</v>
+      </c>
+      <c r="E8">
+        <f>1000*C8/$D8</f>
+        <v>104.93662169856034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9419.6</v>
+      </c>
+      <c r="D9">
+        <v>33570.26</v>
+      </c>
+      <c r="E9">
+        <f>1000*C9/$D9</f>
+        <v>280.5935968324344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1531.5</v>
+      </c>
+      <c r="D10">
+        <v>16690.13</v>
+      </c>
+      <c r="E10">
+        <f>1000*C10/$D10</f>
+        <v>91.760819118844481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2183.3000000000002</v>
+      </c>
+      <c r="D11">
+        <v>8269.7099999999991</v>
+      </c>
+      <c r="E11">
+        <f>1000*C11/$D11</f>
+        <v>264.01167634657082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10684.9</v>
+      </c>
+      <c r="D12">
+        <v>660.98</v>
+      </c>
+      <c r="E12">
+        <f>1000*C12/$D12</f>
+        <v>16165.239492874216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>50345.2</v>
+      </c>
+      <c r="D13">
+        <v>37044.86</v>
+      </c>
+      <c r="E13">
+        <f>1000*C13/$D13</f>
+        <v>1359.0333449768739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>37892.300000000003</v>
+      </c>
+      <c r="D14">
+        <v>34337.49</v>
+      </c>
+      <c r="E14">
+        <f>1000*C14/$D14</f>
+        <v>1103.525621703858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3759.5</v>
+      </c>
+      <c r="D15">
+        <v>3170.65</v>
+      </c>
+      <c r="E15">
+        <f>1000*C15/$D15</f>
+        <v>1185.7190166054279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>41814.5</v>
+      </c>
+      <c r="D16">
+        <v>48036.84</v>
+      </c>
+      <c r="E16">
+        <f>1000*C16/$D16</f>
+        <v>870.46733298859795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>12431.4</v>
+      </c>
+      <c r="D17">
+        <v>9352.77</v>
+      </c>
+      <c r="E17">
+        <f>1000*C17/$D17</f>
+        <v>1329.1677225036005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
-        <v>4317.3999999999996</v>
-      </c>
-      <c r="C3">
-        <v>4343.3999999999996</v>
-      </c>
-      <c r="D3">
-        <v>4374.3</v>
-      </c>
-      <c r="E3">
+      <c r="C18">
         <v>4433.3</v>
       </c>
-      <c r="F3">
+      <c r="D18">
         <v>5590.15</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:J35" si="1">1000*B3/$F3</f>
-        <v>772.32274625904495</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>776.97378424550334</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>782.50136400633266</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
+      <c r="E18">
+        <f>1000*C18/$D18</f>
         <v>793.05564251406497</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>11904.6</v>
-      </c>
-      <c r="C4">
-        <v>12023</v>
-      </c>
-      <c r="D4">
-        <v>12167</v>
-      </c>
-      <c r="E4">
-        <v>12431.4</v>
-      </c>
-      <c r="F4">
-        <v>9352.77</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>1272.8421633377063</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1285.5015145245738</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>1300.8980227248185</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>1329.1677225036005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2010.7</v>
-      </c>
-      <c r="C5">
-        <v>2032.4</v>
-      </c>
-      <c r="D5">
-        <v>2059.4</v>
-      </c>
-      <c r="E5">
-        <v>2112.1999999999998</v>
-      </c>
-      <c r="F5">
-        <v>20128.34</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>99.893980328233724</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>100.97206227637251</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>102.31345456207517</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>104.93662169856034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>3668.7</v>
-      </c>
-      <c r="C6">
-        <v>3687.8</v>
-      </c>
-      <c r="D6">
-        <v>3712.6</v>
-      </c>
-      <c r="E6">
-        <v>3759.5</v>
-      </c>
-      <c r="F6">
-        <v>3170.65</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>1157.0813555580087</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>1163.1053569457367</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1170.9270969674988</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1185.7190166054279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>10562.1</v>
-      </c>
-      <c r="C7">
-        <v>10605.4</v>
-      </c>
-      <c r="D7">
-        <v>10640</v>
-      </c>
-      <c r="E7">
-        <v>10684.9</v>
-      </c>
-      <c r="F7">
-        <v>660.98</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>15979.454749009046</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>16044.963538987564</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>16097.310054767164</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>16165.239492874216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>5646</v>
+      </c>
+      <c r="D19">
+        <v>19675.89</v>
+      </c>
+      <c r="E19">
+        <f>1000*C19/$D19</f>
+        <v>286.95017099607691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>5656</v>
+      </c>
+      <c r="D20">
+        <v>46446.64</v>
+      </c>
+      <c r="E20">
+        <f>1000*C20/$D20</f>
+        <v>121.77414771014652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>5695.5</v>
+      </c>
+      <c r="D21">
+        <v>147037.04</v>
+      </c>
+      <c r="E21">
+        <f>1000*C21/$D21</f>
+        <v>38.735137758485884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>2809.7</v>
+      </c>
+      <c r="D22">
+        <v>153443.91</v>
+      </c>
+      <c r="E22">
+        <f>1000*C22/$D22</f>
+        <v>18.310925471072785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>1171.7</v>
-      </c>
-      <c r="C8">
-        <v>1183.5</v>
-      </c>
-      <c r="D8">
-        <v>1198.4000000000001</v>
-      </c>
-      <c r="E8">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>4273.3999999999996</v>
+      </c>
+      <c r="D23">
+        <v>37135.050000000003</v>
+      </c>
+      <c r="E23">
+        <f>1000*C23/$D23</f>
+        <v>115.07726527902884</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>4045.9</v>
+      </c>
+      <c r="D24">
+        <v>126981.28</v>
+      </c>
+      <c r="E24">
+        <f>1000*C24/$D24</f>
+        <v>31.862176850004978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>739.8</v>
+      </c>
+      <c r="D25">
+        <v>70101.179999999993</v>
+      </c>
+      <c r="E25">
+        <f>1000*C25/$D25</f>
+        <v>10.55331736213285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>2701.8</v>
+      </c>
+      <c r="D26">
+        <v>14500.28</v>
+      </c>
+      <c r="E26">
+        <f>1000*C26/$D26</f>
+        <v>186.32743643571021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>3121.8</v>
+      </c>
+      <c r="D27">
+        <v>61605.72</v>
+      </c>
+      <c r="E27">
+        <f>1000*C27/$D27</f>
+        <v>50.673865998157311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>9463.4</v>
+      </c>
+      <c r="D28">
+        <v>45330.55</v>
+      </c>
+      <c r="E28">
+        <f>1000*C28/$D28</f>
+        <v>208.76428810151211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>2793.1</v>
+      </c>
+      <c r="D29">
+        <v>36159.71</v>
+      </c>
+      <c r="E29">
+        <f>1000*C29/$D29</f>
+        <v>77.243429219979916</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
         <v>1227.8</v>
       </c>
-      <c r="F8">
+      <c r="D30">
         <v>12025.15</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>97.437454002652771</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>98.418730743483451</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>99.65780052639677</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
+      <c r="E30">
+        <f>1000*C30/$D30</f>
         <v>102.10267647389014</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3548.2</v>
-      </c>
-      <c r="C9">
-        <v>3586.4</v>
-      </c>
-      <c r="D9">
-        <v>3633.2</v>
-      </c>
-      <c r="E9">
-        <v>3724.3</v>
-      </c>
-      <c r="F9">
-        <v>49026.58</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>72.372986245420336</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>73.152155422629932</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>74.106739650206066</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>75.964915358158777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>48274.2</v>
-      </c>
-      <c r="C10">
-        <v>48738.8</v>
-      </c>
-      <c r="D10">
-        <v>49306.8</v>
-      </c>
-      <c r="E10">
-        <v>50345.2</v>
-      </c>
-      <c r="F10">
-        <v>37044.86</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
-        <v>1303.1281532714661</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>1315.6697042450694</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1331.0024656592034</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1359.0333449768739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>36516</v>
-      </c>
-      <c r="C11">
-        <v>36811.1</v>
-      </c>
-      <c r="D11">
-        <v>37180.400000000001</v>
-      </c>
-      <c r="E11">
-        <v>37892.300000000003</v>
-      </c>
-      <c r="F11">
-        <v>34337.49</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
-        <v>1063.4440665290329</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>1072.0381716893112</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1082.7931802819601</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>1103.525621703858</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>40665.699999999997</v>
-      </c>
-      <c r="C12">
-        <v>40921.1</v>
-      </c>
-      <c r="D12">
-        <v>41230</v>
-      </c>
-      <c r="E12">
-        <v>41814.5</v>
-      </c>
-      <c r="F12">
-        <v>48036.84</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>846.55235440133038</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>851.8691071269468</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>858.299588399237</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>870.46733298859795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>5414.4</v>
-      </c>
-      <c r="C13">
-        <v>5474.7</v>
-      </c>
-      <c r="D13">
-        <v>5549.7</v>
-      </c>
-      <c r="E13">
-        <v>5695.5</v>
-      </c>
-      <c r="F13">
-        <v>147037.04</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
-        <v>36.823374572828719</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>37.23347532023223</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>37.743550876704262</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>38.735137758485884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>4073.6</v>
-      </c>
-      <c r="C14">
-        <v>4116.8999999999996</v>
-      </c>
-      <c r="D14">
-        <v>4170.2</v>
-      </c>
-      <c r="E14">
-        <v>4273.3999999999996</v>
-      </c>
-      <c r="F14">
-        <v>37135.050000000003</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
-        <v>109.69690359916035</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>110.86291791716988</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>112.29821960654421</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>115.07726527902884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>2670</v>
-      </c>
-      <c r="C15">
-        <v>2700.1</v>
-      </c>
-      <c r="D15">
-        <v>2737.2</v>
-      </c>
-      <c r="E15">
-        <v>2809.7</v>
-      </c>
-      <c r="F15">
-        <v>153443.91</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>17.400495073411516</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>17.596657957946977</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>17.838440117955805</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>18.310925471072785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>3766</v>
-      </c>
-      <c r="C16">
-        <v>3803.5</v>
-      </c>
-      <c r="D16">
-        <v>3856.8</v>
-      </c>
-      <c r="E16">
-        <v>4045.9</v>
-      </c>
-      <c r="F16">
-        <v>126981.28</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>29.657914930452741</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>29.953234051507437</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>30.372980962233175</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>31.862176850004978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>701.8</v>
-      </c>
-      <c r="C17">
-        <v>710</v>
-      </c>
-      <c r="D17">
-        <v>720.1</v>
-      </c>
-      <c r="E17">
-        <v>739.8</v>
-      </c>
-      <c r="F17">
-        <v>70101.179999999993</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>10.011243747965441</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>10.128217527864724</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>10.272294988472378</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>10.55331736213285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>1455.7</v>
-      </c>
-      <c r="C18">
-        <v>1471.8</v>
-      </c>
-      <c r="D18">
-        <v>1492</v>
-      </c>
-      <c r="E18">
-        <v>1531.5</v>
-      </c>
-      <c r="F18">
-        <v>16690.13</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>87.21921279223109</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>88.183854769255831</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>89.394150914342788</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>91.760819118844481</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>2064.6</v>
-      </c>
-      <c r="C19">
-        <v>2089.9</v>
-      </c>
-      <c r="D19">
-        <v>2121.5</v>
-      </c>
-      <c r="E19">
-        <v>2183.3000000000002</v>
-      </c>
-      <c r="F19">
-        <v>8269.7099999999991</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>249.65808958234331</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>252.71744716562011</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>256.5386210641002</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>264.01167634657082</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>9007.7999999999993</v>
-      </c>
-      <c r="C20">
-        <v>4438.6000000000004</v>
-      </c>
-      <c r="D20">
-        <v>4496.6000000000004</v>
-      </c>
-      <c r="E20">
-        <v>9419.6</v>
-      </c>
-      <c r="F20">
-        <v>33570.26</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>268.32678686432575</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>132.21821934057107</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>133.94593905438921</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>280.5935968324344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B21">
-        <v>1848.9</v>
-      </c>
-      <c r="C21">
-        <v>1869.5</v>
-      </c>
-      <c r="D21">
-        <v>1895.1</v>
-      </c>
-      <c r="E21">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1503.2</v>
+      </c>
+      <c r="D31">
+        <v>16594.75</v>
+      </c>
+      <c r="E31">
+        <f>1000*C31/$D31</f>
+        <v>90.582865062745753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
         <v>1945.6</v>
       </c>
-      <c r="F21">
+      <c r="D32">
         <v>46158.27</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>40.05566066492527</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>40.501951221308772</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>41.0565647282708</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
+      <c r="E32">
+        <f>1000*C32/$D32</f>
         <v>42.150626529113858</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
-        <v>1282.9000000000001</v>
-      </c>
-      <c r="C22">
-        <v>1299.5999999999999</v>
-      </c>
-      <c r="D22">
-        <v>1318.5</v>
-      </c>
-      <c r="E22">
+      <c r="C33">
         <v>1355.6</v>
       </c>
-      <c r="F22">
+      <c r="D33">
         <v>32998.699999999997</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>38.877289105328394</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>39.383369647895222</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>39.95611948349481</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
+      <c r="E33">
+        <f>1000*C33/$D33</f>
         <v>41.080406197819919</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>5320.1</v>
-      </c>
-      <c r="C23">
-        <v>5387.2</v>
-      </c>
-      <c r="D23">
-        <v>5474</v>
-      </c>
-      <c r="E23">
-        <v>5646</v>
-      </c>
-      <c r="F23">
-        <v>19675.89</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>270.38675251792932</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>273.79701756820151</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>278.20850797600514</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>286.95017099607691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>5325.6</v>
-      </c>
-      <c r="C24">
-        <v>5394.4</v>
-      </c>
-      <c r="D24">
-        <v>5481.8</v>
-      </c>
-      <c r="E24">
-        <v>5656</v>
-      </c>
-      <c r="F24">
-        <v>46446.64</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>114.66060838846469</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>116.14187807772532</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>118.02360730507094</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>121.77414771014652</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B25">
-        <v>4303.7</v>
-      </c>
-      <c r="C25">
-        <v>4356.8</v>
-      </c>
-      <c r="D25">
-        <v>4429.7</v>
-      </c>
-      <c r="E25">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
         <v>4542.6000000000004</v>
       </c>
-      <c r="F25">
+      <c r="D34">
         <v>312816.36</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>13.757912150119003</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>13.927660305234676</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>14.160704382596871</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
+      <c r="E34">
+        <f>1000*C34/$D34</f>
         <v>14.521619009952037</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
-        <v>1134.0999999999999</v>
-      </c>
-      <c r="C26">
-        <v>1149.4000000000001</v>
-      </c>
-      <c r="D26">
-        <v>1168.4000000000001</v>
-      </c>
-      <c r="E26">
+      <c r="C35">
         <v>1205.8</v>
       </c>
-      <c r="F26">
+      <c r="D35">
         <v>99398.26</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>11.409656466823463</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>11.563582702554351</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>11.754732929932578</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
+      <c r="E35">
+        <f>1000*C35/$D35</f>
         <v>12.13099706171919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>6394.1</v>
-      </c>
-      <c r="C27">
-        <v>6466.8</v>
-      </c>
-      <c r="D27">
-        <v>6555.8</v>
-      </c>
-      <c r="E27">
-        <v>6728.1</v>
-      </c>
-      <c r="F27">
-        <v>89935.9</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>71.096191843301739</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="1"/>
-        <v>71.904545348409258</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>72.894139047921911</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>74.809947974057081</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>1419.2</v>
-      </c>
-      <c r="C28">
-        <v>1436.7</v>
-      </c>
-      <c r="D28">
-        <v>1458.9</v>
-      </c>
-      <c r="E28">
-        <v>1503.2</v>
-      </c>
-      <c r="F28">
-        <v>16594.75</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>85.521023215173471</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>86.575573600084368</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>87.913346088371327</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>90.582865062745753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>9073.5</v>
-      </c>
-      <c r="C29">
-        <v>9156.9</v>
-      </c>
-      <c r="D29">
-        <v>9260.1</v>
-      </c>
-      <c r="E29">
-        <v>9463.4</v>
-      </c>
-      <c r="F29">
-        <v>45330.55</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>200.16302471512037</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>202.00284355693896</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>204.27945392235478</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>208.76428810151211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30">
-        <v>2985.7</v>
-      </c>
-      <c r="C30">
-        <v>3015</v>
-      </c>
-      <c r="D30">
-        <v>3051.2</v>
-      </c>
-      <c r="E30">
-        <v>3121.8</v>
-      </c>
-      <c r="F30">
-        <v>61605.72</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>48.464655554711477</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
-        <v>48.940260742022005</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>49.527868516105322</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>50.673865998157311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>2624.9</v>
-      </c>
-      <c r="C31">
-        <v>2659.9</v>
-      </c>
-      <c r="D31">
-        <v>2704.6</v>
-      </c>
-      <c r="E31">
-        <v>2793.1</v>
-      </c>
-      <c r="F31">
-        <v>36159.71</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>72.591843242105654</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="1"/>
-        <v>73.559771358785795</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>74.795953839231572</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>77.243429219979916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32">
-        <v>2621.9</v>
-      </c>
-      <c r="C32">
-        <v>2639.5</v>
-      </c>
-      <c r="D32">
-        <v>2660.8</v>
-      </c>
-      <c r="E32">
-        <v>2701.8</v>
-      </c>
-      <c r="F32">
-        <v>14500.28</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>180.81719801272803</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="1"/>
-        <v>182.03096767786553</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>183.49990482942397</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>186.32743643571021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>5534.5</v>
-      </c>
-      <c r="C33">
-        <v>5597.3</v>
-      </c>
-      <c r="D33">
-        <v>5677.6</v>
-      </c>
-      <c r="E33">
-        <v>5836.2</v>
-      </c>
-      <c r="F33">
-        <v>42119.54</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>131.39982060582807</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="1"/>
-        <v>132.89081504688798</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>134.79729360766999</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>138.56276682983716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>8467.4</v>
-      </c>
-      <c r="C34">
-        <v>8548.6</v>
-      </c>
-      <c r="D34">
-        <v>8647.2999999999993</v>
-      </c>
-      <c r="E34">
-        <v>8837.2999999999993</v>
-      </c>
-      <c r="F34">
-        <v>86771.68</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>97.58252923073519</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>98.518318419097113</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>99.655786311847379</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>101.84544081663512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>14799.4</v>
-      </c>
-      <c r="C35">
-        <v>14970.5</v>
-      </c>
-      <c r="D35">
-        <v>15180.5</v>
-      </c>
-      <c r="E35">
-        <v>15588.5</v>
-      </c>
-      <c r="F35">
-        <v>72460.740000000005</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>204.24025479176723</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="1"/>
-        <v>206.60153346488042</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>209.49965457156523</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>215.13028986455285</v>
       </c>
     </row>
   </sheetData>
@@ -2326,16 +1679,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2358,7 +1711,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +1734,7 @@
         <v>56834.75</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2404,7 +1757,7 @@
         <v>5590.15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2427,7 +1780,7 @@
         <v>9352.77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +1803,7 @@
         <v>20128.34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2473,7 +1826,7 @@
         <v>3170.65</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +1849,7 @@
         <v>660.98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2519,7 +1872,7 @@
         <v>12025.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +1895,7 @@
         <v>49026.58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2565,7 +1918,7 @@
         <v>37044.86</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2588,7 +1941,7 @@
         <v>34337.49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2611,7 +1964,7 @@
         <v>48036.84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2634,7 +1987,7 @@
         <v>147037.04</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2657,7 +2010,7 @@
         <v>37135.050000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2680,7 +2033,7 @@
         <v>153443.91</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2703,7 +2056,7 @@
         <v>126981.28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2726,7 +2079,7 @@
         <v>70101.179999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2749,7 +2102,7 @@
         <v>16690.13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2125,7 @@
         <v>8269.7099999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2795,7 +2148,7 @@
         <v>33570.26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2818,7 +2171,7 @@
         <v>46158.27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2841,7 +2194,7 @@
         <v>32998.699999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -2864,7 +2217,7 @@
         <v>19675.89</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2887,7 +2240,7 @@
         <v>46446.64</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2911,7 +2264,7 @@
         <v>312816.36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2935,7 +2288,7 @@
         <v>99398.26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2958,7 +2311,7 @@
         <v>89935.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2978,7 +2331,7 @@
         <v>16594.75</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -3001,7 +2354,7 @@
         <v>45330.55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -3024,7 +2377,7 @@
         <v>61605.72</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3047,7 +2400,7 @@
         <v>36159.71</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3070,7 +2423,7 @@
         <v>14500.28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -3093,7 +2446,7 @@
         <v>42119.54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3116,7 +2469,7 @@
         <v>86771.68</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +2492,7 @@
         <v>72460.740000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -3156,7 +2509,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3173,7 +2526,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +2543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3207,7 +2560,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>34</v>
       </c>
